--- a/assets/disciplinas/LOM3217.xlsx
+++ b/assets/disciplinas/LOM3217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar os fundamentos da Termodinâmica e Mecânica Estatística. Apresentar os diferentes formalismos da Mecânica Estatística. Aplicação dos formalismos a modelos simples, desenvolver a cultura dos resultados e previsões mais importantes.</t>
+    <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1643715 - Paulo Atsushi Suzuki</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Leis da termodinâmica. Conceitos da mecânica estatística na representação da entropia. Gás ideal clássico monoatômico. Mecânica estatística clássica. Gás ideal clássico de moléculas diatômicas. Modelo de Debye. Radiação do corpo negro. O formalismo da mecânica estatística. Gases ideais quânticos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Leis da termodinâmica. Potenciais termodinâmicos (potenciais de Helmholtz e Gibbs, entalpia, energia interna) e relações de Maxwell. Gás de elétrons degenerado. A mecânica estatística na representação da entropia (formalismo micro-canônico). Formalismo canônico: mecânica estatística na representação de Helmholtz.Gás ideal clássico monoatômico. Mecânica estatística clássica. Gás ideal clássico de moléculas diatômicas. Modelo de Debye para o calor específico dos sólidos. Radiação do corpo negro. O formalismo grande-canônico. Formalismo microcanônico. Gases ideais quânticos. Gás ideal de férmions - gás de elétrons. Gás ideal de bósons - gás de fótons.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CALLEN, H.B., Thermodynamics and an introduction to thermostatistics, John Wiley &amp; Sons, New York, 1985. GOODSTEIN, D.L., States of Matter. Prentice-Hall, Inc., New Jersey, 1975. KUBO, R. Thermodynamics, John Wiley &amp; Sons, New York, 1960. HUANG, K., Statistical Mechanics, Wiley, 1963. REIF, F. Fundamentals of Statistical and Thermal Physics, McGraw-Hill, NY, 1965. SALINAS, S. R. A., Introdução à Física Estatística, Edusp, São Paulo, 1999.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3217.xlsx
+++ b/assets/disciplinas/LOM3217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,34 +70,43 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>This discipline aims to present the fundamentals of Thermodynamics and Statistical Physics. To present the different formalisms of Statistical Physics. Application of formalisms to some simple models. Applications.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Concepts of thermodynamics. Formalisms of Statistical Physics. Classic ideal gas. Quantum gases. Applications.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Macroscopic and microscopic systems. Postulates of thermodynamics. Fundamental equation. Equations of state. Thermodynamic equilibrium. Thermodynamic derivatives. Thermodynamic potentials. Maxwell relations. Born diagram. Reduction of thermodynamic derivatives.Microcanonical formalism. Boltzmann equation. Einstein model of a crystalline solid. Canonical formalism. Example: ideal classical gas. Maxwell-Boltzmann distribution. Grand canonical formalism. Quantum gases. Fermions and bosons. Bose-Einstein distribution. Fermi-Dirac distribution. Examples: electron gas and photon gas. Planck distribution.Applications: superconductivity, electron gas in semiconductor, superfluidity of the liquid helium.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1643715 - Paulo Atsushi Suzuki</t>
-  </si>
-  <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -601,112 +610,130 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3217.xlsx
+++ b/assets/disciplinas/LOM3217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os fundamentos da Termodinâmica e Física Estatística. Apresentar os diferentes formalismos da Física Estatística. Aplicação dos formalismos a modelos simples. Apresentar as aplicações.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>This discipline aims to present the fundamentals of Thermodynamics and Statistical Physics. To present the different formalisms of Statistical Physics. Application of formalisms to some simple models. Applications.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>This discipline aims to present the fundamentals of Thermodynamics and Statistical Physics. To present the different formalisms of Statistical Physics. Application of formalisms to some simple models. Applications.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Conceitos da termodinâmica. Formalismos da Física Estatística. Gás ideal clássico. Gases quânticos. Aplicações.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Sistemas macroscópicos e microscópicos. Postulados da termodinâmica. Equação fundamental. Equações de estado. Equação de Euler. Relação de Gibbs-Duhem. Equilíbrio termodinâmico. Derivadas Termodinâmicas. Potenciais Termodinâmicos: Helmholtz, Gibbs, Grande Canônico e Entalpia. Relações de Maxwell. Diagrama de Born. Redução de derivadas termodinâmicas. Formalismo microcanônico. Equação de Boltzmann. Exemplo: Modelo de Einstein de sólido cristalino. Formalismo canônico. Exemplo: Gás ideal clássico. Distribuição de Maxwell-Boltzmann. Formalismo grande canônico. Gases quânticos: férmions e bósons. Estatística de Bose-Einstein. Estatística de Fermi-Dirac. Exemplos: gás de elétrons e gás de fótons. Estatística de Planck.Aplicações: supercondutividade. Gás de elétrons em semicondutores. superfluidez no hélio líquido.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1643715 - Paulo Atsushi Suzuki</t>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>CALLEN, H.B., Thermodynamics and an introduction to thermostatistics, John Wiley &amp; Sons, New York, 1985. SALINAS, S. R. A., Introdução à Física Estatística, Edusp, São Paulo, 1999. CASQUILHO J.P. e TEIXEIRA P.I.C, Introdução à Física Estatística, Editora Livraria da Física, São Paulo, 2012. DALARSSON, N. DALARSSON, M. GOLUBOVIC, L.  Introductory Statistical Thermodynamics. Academic Press, 2011.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,40 +634,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -666,30 +672,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -704,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -715,25 +721,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
